--- a/typicality_ratings/stimuli_190829.xlsx
+++ b/typicality_ratings/stimuli_190829.xlsx
@@ -402,9 +402,6 @@
     <t>19_vis_life saver.png</t>
   </si>
   <si>
-    <t>life saver</t>
-  </si>
-  <si>
     <t>20_vis_ice cream.png</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
     <t>95_u1_lamp post.png</t>
   </si>
   <si>
-    <t>lamp post</t>
-  </si>
-  <si>
     <t>96_vis_traffic sign.png</t>
   </si>
   <si>
@@ -861,9 +855,6 @@
     <t>Vlees</t>
   </si>
   <si>
-    <t>Klok</t>
-  </si>
-  <si>
     <t>Broek</t>
   </si>
   <si>
@@ -1029,9 +1020,6 @@
     <t>vuilniszakken</t>
   </si>
   <si>
-    <t>frituurpan</t>
-  </si>
-  <si>
     <t>regenlaarzen</t>
   </si>
   <si>
@@ -1206,9 +1194,6 @@
     <t>Kruik</t>
   </si>
   <si>
-    <t>Reddinsboei</t>
-  </si>
-  <si>
     <t>trappers</t>
   </si>
   <si>
@@ -1224,9 +1209,6 @@
     <t>etui</t>
   </si>
   <si>
-    <t>stampot stamper</t>
-  </si>
-  <si>
     <t>lantaarnpaal</t>
   </si>
   <si>
@@ -1255,6 +1237,24 @@
   </si>
   <si>
     <t>boomstammen</t>
+  </si>
+  <si>
+    <t>Reddingsboei</t>
+  </si>
+  <si>
+    <t>stampotstamper</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
+  <si>
+    <t>koekenpan</t>
+  </si>
+  <si>
+    <t>streetlight</t>
+  </si>
+  <si>
+    <t>lifebuoy</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1579,8 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G2" t="str">
         <f>IF(E2="sing", "is this","are these")</f>
@@ -1657,7 +1657,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">IF(E3="sing", "is this","are these")</f>
@@ -1681,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1777,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1801,7 +1801,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1921,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1969,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1993,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2017,7 +2017,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -2065,7 +2065,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -2161,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2233,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2281,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +2353,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2401,7 +2401,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2425,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -2449,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2473,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2497,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2545,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2617,7 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2641,7 +2641,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2689,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2713,7 +2713,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2809,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2857,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2905,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2929,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2953,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2977,14 +2977,14 @@
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2995,20 +2995,20 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3019,20 +3019,20 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
         <v>are these</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3043,20 +3043,20 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,20 +3067,20 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3091,20 +3091,20 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3115,20 +3115,20 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3139,20 +3139,20 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
         <v>are these</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,20 +3163,20 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
         <v>is this</v>
       </c>
       <c r="H66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,20 +3187,20 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="1">IF(E67="sing", "is this","are these")</f>
         <v>is this</v>
       </c>
       <c r="H67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3211,20 +3211,20 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3235,20 +3235,20 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3259,20 +3259,20 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3283,20 +3283,20 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3307,20 +3307,20 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3331,20 +3331,20 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3355,20 +3355,20 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3379,20 +3379,20 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
         <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3403,20 +3403,20 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3427,20 +3427,20 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
         <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3451,20 +3451,20 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3475,20 +3475,20 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -3499,20 +3499,20 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3523,20 +3523,20 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,20 +3547,20 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3571,20 +3571,20 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3595,20 +3595,20 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,20 +3619,20 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3643,20 +3643,20 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,20 +3667,20 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3691,20 +3691,20 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -3715,20 +3715,20 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3739,20 +3739,20 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3763,20 +3763,20 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,20 +3787,20 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3811,20 +3811,20 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3835,20 +3835,20 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3859,20 +3859,20 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3883,20 +3883,20 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3907,20 +3907,20 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3931,20 +3931,20 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3955,20 +3955,20 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3976,23 +3976,23 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4000,23 +4000,23 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4024,23 +4024,23 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4048,23 +4048,23 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,23 +4072,23 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H104" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4096,23 +4096,23 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,23 +4120,23 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4144,23 +4144,23 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
       <c r="E107" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H107" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4168,23 +4168,23 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H108" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4192,23 +4192,23 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4216,23 +4216,23 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H110" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4240,23 +4240,23 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4264,23 +4264,23 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H112" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,23 +4288,23 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4312,23 +4312,23 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H114" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,23 +4336,23 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H115" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4360,23 +4360,23 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,23 +4384,23 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4408,23 +4408,23 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H118" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4432,23 +4432,23 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H119" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4456,23 +4456,23 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D120" t="s">
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4480,23 +4480,23 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4504,23 +4504,23 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4528,23 +4528,23 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D123" t="s">
         <v>6</v>
       </c>
       <c r="E123" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4552,23 +4552,23 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4576,23 +4576,23 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H125" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,23 +4600,23 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,23 +4624,23 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H127" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4648,23 +4648,23 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H128" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,23 +4672,23 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
         <v>is this</v>
       </c>
       <c r="H129" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4696,23 +4696,23 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D130" t="s">
         <v>6</v>
       </c>
       <c r="E130" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="1"/>
         <v>are these</v>
       </c>
       <c r="H130" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4720,23 +4720,23 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131" si="2">IF(E131="sing", "is this","are these")</f>
         <v>is this</v>
       </c>
       <c r="H131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -4750,20 +4750,20 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F132" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G132" t="str">
         <f>IF(E132="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -4777,20 +4777,20 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F133" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" ref="G133:G195" si="3">IF(E133="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H133" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4804,20 +4804,20 @@
         <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E134" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F134" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H134" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4831,20 +4831,20 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E135" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F135" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H135" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4858,19 +4858,19 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E136" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F136" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G136" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H136" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4884,20 +4884,20 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E137" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F137" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -4911,19 +4911,19 @@
         <v>18</v>
       </c>
       <c r="D138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E138" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F138" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G138" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4937,19 +4937,19 @@
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E139" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F139" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G139" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H139" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -4963,20 +4963,20 @@
         <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F140" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H140" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4990,20 +4990,20 @@
         <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E141" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F141" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5017,20 +5017,20 @@
         <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E142" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F142" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H142" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5044,20 +5044,20 @@
         <v>28</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F143" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5071,20 +5071,20 @@
         <v>30</v>
       </c>
       <c r="D144" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E144" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F144" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5098,20 +5098,20 @@
         <v>32</v>
       </c>
       <c r="D145" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E145" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F145" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5125,20 +5125,20 @@
         <v>34</v>
       </c>
       <c r="D146" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F146" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5152,20 +5152,20 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E147" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F147" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5179,20 +5179,20 @@
         <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E148" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F148" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5206,20 +5206,20 @@
         <v>40</v>
       </c>
       <c r="D149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E149" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F149" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G149" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H149" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5233,20 +5233,20 @@
         <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E150" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F150" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H150" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5260,20 +5260,20 @@
         <v>44</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E151" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F151" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G151" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H151" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5287,20 +5287,20 @@
         <v>46</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E152" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F152" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G152" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H152" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5314,19 +5314,19 @@
         <v>48</v>
       </c>
       <c r="D153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E153" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F153" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G153" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H153" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5340,20 +5340,20 @@
         <v>50</v>
       </c>
       <c r="D154" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E154" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F154" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G154" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H154" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,20 +5367,20 @@
         <v>52</v>
       </c>
       <c r="D155" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E155" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G155" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H155" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5394,20 +5394,20 @@
         <v>54</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E156" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F156" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G156" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H156" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5421,19 +5421,19 @@
         <v>56</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E157" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F157" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G157" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H157" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,19 +5447,19 @@
         <v>58</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E158" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F158" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G158" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5473,19 +5473,19 @@
         <v>60</v>
       </c>
       <c r="D159" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E159" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F159" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G159" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H159" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5499,19 +5499,19 @@
         <v>62</v>
       </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E160" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F160" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G160" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H160" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5525,20 +5525,20 @@
         <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E161" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F161" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G161" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H161" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5552,20 +5552,20 @@
         <v>66</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E162" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F162" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G162" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H162" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,19 +5579,19 @@
         <v>68</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E163" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F163" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G163" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H163" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5605,19 +5605,19 @@
         <v>70</v>
       </c>
       <c r="D164" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E164" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F164" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G164" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H164" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5631,20 +5631,20 @@
         <v>72</v>
       </c>
       <c r="D165" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E165" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F165" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G165" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H165" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,19 +5658,19 @@
         <v>74</v>
       </c>
       <c r="D166" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E166" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F166" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G166" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5684,19 +5684,19 @@
         <v>76</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E167" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F167" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G167" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H167" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -5710,20 +5710,20 @@
         <v>78</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E168" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F168" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G168" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -5737,20 +5737,20 @@
         <v>80</v>
       </c>
       <c r="D169" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E169" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F169" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G169" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H169" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -5764,20 +5764,20 @@
         <v>82</v>
       </c>
       <c r="D170" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E170" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F170" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G170" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H170" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -5791,20 +5791,20 @@
         <v>84</v>
       </c>
       <c r="D171" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E171" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F171" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G171" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H171" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -5818,20 +5818,20 @@
         <v>86</v>
       </c>
       <c r="D172" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E172" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F172" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G172" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H172" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -5845,20 +5845,20 @@
         <v>88</v>
       </c>
       <c r="D173" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E173" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F173" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G173" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H173" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,20 +5872,20 @@
         <v>90</v>
       </c>
       <c r="D174" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E174" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F174" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G174" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H174" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5899,20 +5899,20 @@
         <v>92</v>
       </c>
       <c r="D175" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E175" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F175" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G175" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H175" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,19 +5926,19 @@
         <v>94</v>
       </c>
       <c r="D176" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E176" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F176" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G176" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H176" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -5952,19 +5952,19 @@
         <v>96</v>
       </c>
       <c r="D177" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E177" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F177" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G177" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H177" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -5978,20 +5978,20 @@
         <v>98</v>
       </c>
       <c r="D178" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E178" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F178" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G178" t="str">
         <f t="shared" si="3"/>
-        <v>zijn deze</v>
+        <v>is deze</v>
       </c>
       <c r="H178" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6005,19 +6005,19 @@
         <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E179" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F179" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G179" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H179" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6031,20 +6031,20 @@
         <v>102</v>
       </c>
       <c r="D180" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E180" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F180" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G180" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H180" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6058,20 +6058,20 @@
         <v>104</v>
       </c>
       <c r="D181" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E181" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F181" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G181" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H181" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6085,20 +6085,20 @@
         <v>106</v>
       </c>
       <c r="D182" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E182" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F182" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H182" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6112,20 +6112,20 @@
         <v>108</v>
       </c>
       <c r="D183" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E183" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F183" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H183" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6139,19 +6139,19 @@
         <v>110</v>
       </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E184" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F184" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G184" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H184" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6165,19 +6165,19 @@
         <v>112</v>
       </c>
       <c r="D185" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E185" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F185" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G185" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H185" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6191,20 +6191,20 @@
         <v>114</v>
       </c>
       <c r="D186" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6218,19 +6218,19 @@
         <v>116</v>
       </c>
       <c r="D187" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E187" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G187" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H187" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6244,20 +6244,20 @@
         <v>118</v>
       </c>
       <c r="D188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H188" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6268,22 +6268,22 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D189" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G189" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H189" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6294,23 +6294,23 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D190" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E190" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H190" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6321,23 +6321,23 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H191" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6348,23 +6348,23 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D192" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E192" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H192" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6375,23 +6375,23 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D193" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G193" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H193" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6402,23 +6402,23 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E194" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G194" t="str">
         <f t="shared" si="3"/>
         <v>is deze</v>
       </c>
       <c r="H194" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6429,23 +6429,23 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D195" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
         <v>zijn deze</v>
       </c>
       <c r="H195" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6456,22 +6456,22 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D196" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E196" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H196" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6482,23 +6482,23 @@
         <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D197" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E197" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" ref="G197:G229" si="4">IF(E197="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H197" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6509,23 +6509,23 @@
         <v>4</v>
       </c>
       <c r="C198" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D198" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E198" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H198" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6536,23 +6536,23 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D199" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E199" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G199" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H199" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -6563,23 +6563,23 @@
         <v>4</v>
       </c>
       <c r="C200" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D200" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E200" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F200" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G200" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H200" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -6590,23 +6590,23 @@
         <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D201" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E201" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G201" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H201" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -6617,23 +6617,23 @@
         <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D202" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E202" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G202" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H202" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,23 +6644,23 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D203" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E203" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G203" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H203" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6671,23 +6671,23 @@
         <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D204" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E204" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F204" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G204" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H204" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6698,22 +6698,22 @@
         <v>4</v>
       </c>
       <c r="C205" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D205" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E205" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F205" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G205" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H205" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -6724,23 +6724,23 @@
         <v>4</v>
       </c>
       <c r="C206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D206" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E206" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F206" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G206" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H206" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -6751,23 +6751,23 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D207" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E207" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F207" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G207" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H207" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6778,23 +6778,23 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E208" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F208" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G208" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H208" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6805,23 +6805,23 @@
         <v>4</v>
       </c>
       <c r="C209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D209" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E209" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F209" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G209" t="str">
         <f t="shared" si="4"/>
         <v>zijn deze</v>
       </c>
       <c r="H209" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -6832,23 +6832,23 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D210" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E210" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F210" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G210" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H210" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6859,23 +6859,23 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E211" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F211" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G211" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H211" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -6886,23 +6886,23 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D212" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E212" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F212" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G212" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H212" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -6913,23 +6913,23 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D213" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E213" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F213" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G213" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H213" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -6940,23 +6940,23 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D214" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E214" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F214" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G214" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H214" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -6967,23 +6967,23 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D215" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E215" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F215" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G215" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H215" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -6994,23 +6994,23 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D216" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E216" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F216" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G216" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H216" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7021,23 +7021,23 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D217" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E217" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F217" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G217" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H217" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7048,23 +7048,23 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D218" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E218" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F218" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G218" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H218" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7075,23 +7075,23 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D219" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E219" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F219" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G219" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H219" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7102,22 +7102,22 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D220" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E220" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F220" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G220" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H220" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7128,23 +7128,23 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D221" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E221" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F221" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G221" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H221" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7155,23 +7155,23 @@
         <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D222" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E222" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F222" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G222" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H222" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7182,23 +7182,23 @@
         <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D223" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E223" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F223" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G223" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H223" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7209,23 +7209,23 @@
         <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D224" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E224" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F224" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G224" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H224" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7236,23 +7236,23 @@
         <v>4</v>
       </c>
       <c r="C225" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D225" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E225" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F225" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G225" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H225" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7263,23 +7263,23 @@
         <v>4</v>
       </c>
       <c r="C226" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D226" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E226" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F226" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G226" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H226" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7290,22 +7290,22 @@
         <v>4</v>
       </c>
       <c r="C227" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D227" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E227" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F227" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G227" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H227" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7316,23 +7316,23 @@
         <v>4</v>
       </c>
       <c r="C228" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D228" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E228" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F228" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G228" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H228" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7343,23 +7343,23 @@
         <v>4</v>
       </c>
       <c r="C229" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D229" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E229" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F229" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G229" t="str">
         <f t="shared" si="4"/>
         <v>is deze</v>
       </c>
       <c r="H229" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7367,26 +7367,26 @@
         <v>99</v>
       </c>
       <c r="B230" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C230" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D230" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E230" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F230" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G230" t="str">
         <f t="shared" ref="G230" si="5">IF(E230="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H230" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7394,26 +7394,26 @@
         <v>100</v>
       </c>
       <c r="B231" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C231" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D231" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E231" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F231" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G231" t="str">
         <f>IF(E231="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H231" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7421,26 +7421,26 @@
         <v>101</v>
       </c>
       <c r="B232" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C232" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D232" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E232" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F232" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G232" t="str">
         <f>IF(E232="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H232" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7448,26 +7448,26 @@
         <v>102</v>
       </c>
       <c r="B233" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C233" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D233" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E233" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F233" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G233" t="str">
         <f>IF(E233="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H233" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7475,26 +7475,26 @@
         <v>103</v>
       </c>
       <c r="B234" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C234" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D234" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E234" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F234" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G234" t="str">
         <f>IF(E234="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H234" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7502,26 +7502,26 @@
         <v>104</v>
       </c>
       <c r="B235" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C235" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D235" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E235" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F235" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G235" t="str">
         <f>IF(E235="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H235" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7529,25 +7529,25 @@
         <v>105</v>
       </c>
       <c r="B236" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C236" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D236" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E236" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F236" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G236" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H236" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7555,26 +7555,26 @@
         <v>106</v>
       </c>
       <c r="B237" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C237" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D237" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E237" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F237" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G237" t="str">
         <f>IF(E237="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H237" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7582,26 +7582,26 @@
         <v>107</v>
       </c>
       <c r="B238" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C238" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D238" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E238" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F238" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G238" t="str">
         <f>IF(E238="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H238" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7609,25 +7609,25 @@
         <v>108</v>
       </c>
       <c r="B239" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C239" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E239" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F239" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G239" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H239" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7635,26 +7635,26 @@
         <v>109</v>
       </c>
       <c r="B240" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C240" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D240" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E240" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F240" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G240" t="str">
         <f>IF(E240="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H240" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7662,26 +7662,26 @@
         <v>110</v>
       </c>
       <c r="B241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C241" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D241" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E241" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F241" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G241" t="str">
         <f>IF(E241="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H241" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7689,26 +7689,26 @@
         <v>111</v>
       </c>
       <c r="B242" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C242" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D242" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E242" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F242" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G242" t="str">
         <f>IF(E242="sing", "is deze","zijn deze")</f>
         <v>zijn deze</v>
       </c>
       <c r="H242" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7716,25 +7716,25 @@
         <v>112</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C243" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D243" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E243" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F243" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G243" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H243" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7742,25 +7742,25 @@
         <v>113</v>
       </c>
       <c r="B244" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C244" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D244" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E244" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F244" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G244" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H244" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -7768,26 +7768,26 @@
         <v>114</v>
       </c>
       <c r="B245" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C245" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D245" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E245" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F245" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G245" t="str">
         <f t="shared" ref="G245:G254" si="6">IF(E245="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H245" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -7795,26 +7795,26 @@
         <v>115</v>
       </c>
       <c r="B246" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C246" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D246" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E246" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F246" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G246" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H246" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -7822,26 +7822,26 @@
         <v>116</v>
       </c>
       <c r="B247" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C247" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D247" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E247" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F247" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G247" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H247" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7849,26 +7849,26 @@
         <v>117</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C248" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D248" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E248" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F248" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G248" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H248" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7876,26 +7876,26 @@
         <v>118</v>
       </c>
       <c r="B249" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E249" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F249" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G249" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H249" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7903,26 +7903,26 @@
         <v>119</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C250" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D250" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E250" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F250" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G250" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H250" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -7930,26 +7930,26 @@
         <v>120</v>
       </c>
       <c r="B251" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C251" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D251" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E251" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F251" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G251" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H251" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -7957,26 +7957,26 @@
         <v>121</v>
       </c>
       <c r="B252" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C252" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D252" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E252" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F252" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G252" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H252" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7984,26 +7984,26 @@
         <v>122</v>
       </c>
       <c r="B253" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C253" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D253" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E253" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F253" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G253" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H253" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8011,26 +8011,26 @@
         <v>123</v>
       </c>
       <c r="B254" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C254" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D254" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E254" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F254" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G254" t="str">
         <f t="shared" si="6"/>
         <v>is deze</v>
       </c>
       <c r="H254" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8038,25 +8038,25 @@
         <v>124</v>
       </c>
       <c r="B255" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C255" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D255" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E255" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F255" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G255" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H255" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8064,26 +8064,26 @@
         <v>125</v>
       </c>
       <c r="B256" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C256" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D256" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E256" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F256" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G256" t="str">
         <f t="shared" ref="G256:G261" si="7">IF(E256="sing", "is deze","zijn deze")</f>
         <v>is deze</v>
       </c>
       <c r="H256" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8091,26 +8091,26 @@
         <v>126</v>
       </c>
       <c r="B257" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C257" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D257" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E257" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F257" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G257" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H257" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8118,26 +8118,26 @@
         <v>127</v>
       </c>
       <c r="B258" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C258" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D258" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E258" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F258" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G258" t="str">
         <f t="shared" si="7"/>
-        <v>is deze</v>
+        <v>zijn deze</v>
       </c>
       <c r="H258" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8145,26 +8145,26 @@
         <v>128</v>
       </c>
       <c r="B259" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D259" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E259" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F259" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G259" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H259" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,26 +8172,26 @@
         <v>129</v>
       </c>
       <c r="B260" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C260" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E260" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F260" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G260" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H260" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8199,26 +8199,26 @@
         <v>130</v>
       </c>
       <c r="B261" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C261" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D261" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F261" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G261" t="str">
         <f t="shared" si="7"/>
         <v>is deze</v>
       </c>
       <c r="H261" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
